--- a/scraping-bot/script/covid19-file.xlsx
+++ b/scraping-bot/script/covid19-file.xlsx
@@ -5,24 +5,24 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\7月\0702\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\8月\0823\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="0" windowWidth="17256" windowHeight="8988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6168"/>
   </bookViews>
   <sheets>
-    <sheet name="yousei" sheetId="2" r:id="rId1"/>
+    <sheet name="yousei " sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">yousei!$A$1:$I$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'yousei '!$A$1:$J$168</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="12">
   <si>
     <t>退院（累計）</t>
     <rPh sb="0" eb="2">
@@ -49,18 +49,6 @@
     <rPh sb="5" eb="7">
       <t>ルイケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入院中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症以下</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -94,6 +82,37 @@
     <t>23時</t>
     <rPh sb="2" eb="3">
       <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院中（合計）</t>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院中（中等症以下）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウインチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院中（重症）</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウインチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊療養</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,32 +486,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
+    <col min="3" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -501,27 +520,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43900</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
         <v>444</v>
@@ -530,7 +552,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1">
-        <f>+D2-H2-I2</f>
+        <f>+D2-I2-J2-H2</f>
         <v>24</v>
       </c>
       <c r="F2" s="1">
@@ -544,15 +566,18 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43901</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>540</v>
@@ -561,29 +586,32 @@
         <v>37</v>
       </c>
       <c r="E3" s="1">
-        <f>+D3-H3-I3</f>
+        <f t="shared" ref="E3:E66" si="0">+D3-I3-J3-H3</f>
         <v>35</v>
       </c>
       <c r="F3" s="1">
-        <f>+E3-G3</f>
+        <f t="shared" ref="F3:F66" si="1">+E3-G3</f>
         <v>31</v>
       </c>
       <c r="G3" s="4">
         <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43902</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>650</v>
@@ -592,29 +620,32 @@
         <v>46</v>
       </c>
       <c r="E4" s="1">
-        <f>+D4-H4-I4</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="F4" s="1">
-        <f>+E4-G4</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G4" s="4">
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43903</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>744</v>
@@ -623,29 +654,32 @@
         <v>56</v>
       </c>
       <c r="E5" s="1">
-        <f>+D5-H5-I5</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F5" s="1">
-        <f>+E5-G5</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43904</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <v>824</v>
@@ -654,29 +688,32 @@
         <v>67</v>
       </c>
       <c r="E6" s="1">
-        <f>+D6-H6-I6</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="F6" s="1">
-        <f>+E6-G6</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="G6" s="5">
         <v>7</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43905</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>887</v>
@@ -685,29 +722,32 @@
         <v>78</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E8" si="0">+D7-H7-I7</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F8" si="1">+E7-G7</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43906</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>951</v>
@@ -726,19 +766,22 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43907</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>1024</v>
@@ -747,29 +790,32 @@
         <v>86</v>
       </c>
       <c r="E9" s="1">
-        <f>+D9-H9-I9</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="F9" s="1">
-        <f>+E9-G9</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43908</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>1131</v>
@@ -778,29 +824,32 @@
         <v>91</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E13" si="2">+D10-H10-I10</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F13" si="3">+E10-G10</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43909</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>1315</v>
@@ -809,29 +858,32 @@
         <v>93</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <v>4</v>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43910</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>1442</v>
@@ -840,29 +892,32 @@
         <v>101</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43911</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>1526</v>
@@ -871,29 +926,32 @@
         <v>107</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="G13" s="1">
         <v>6</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43912</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>1615</v>
@@ -902,27 +960,32 @@
         <v>111</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="1">
-        <v>6</v>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43913</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>1730</v>
@@ -931,27 +994,32 @@
         <v>113</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="G15" s="1">
         <v>6</v>
       </c>
-      <c r="H15" s="1">
-        <v>6</v>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43914</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>1863</v>
@@ -960,27 +1028,32 @@
         <v>118</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="G16" s="1">
         <v>7</v>
       </c>
-      <c r="H16" s="1">
-        <v>6</v>
+      <c r="H16" s="4">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43915</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>2039</v>
@@ -989,27 +1062,32 @@
         <v>119</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="G17" s="1">
         <v>7</v>
       </c>
-      <c r="H17" s="1">
-        <v>6</v>
+      <c r="H17" s="4">
+        <v>0</v>
       </c>
       <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43916</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>2130</v>
@@ -1018,27 +1096,32 @@
         <v>120</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F18" s="1">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>7</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43917</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>2291</v>
@@ -1047,27 +1130,32 @@
         <v>123</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>9</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43918</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>2393</v>
@@ -1076,27 +1164,32 @@
         <v>126</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="G20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>10</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43919</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>2413</v>
@@ -1105,27 +1198,32 @@
         <v>133</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G21" s="1">
         <v>6</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>10</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43920</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>2476</v>
@@ -1134,27 +1232,32 @@
         <v>137</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>11</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43921</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>2614</v>
@@ -1163,27 +1266,32 @@
         <v>148</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>11</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43922</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>2717</v>
@@ -1192,27 +1300,32 @@
         <v>162</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>11</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43923</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>2814</v>
@@ -1221,27 +1334,32 @@
         <v>169</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G25" s="1">
         <v>8</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>11</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43924</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>2927</v>
@@ -1250,27 +1368,32 @@
         <v>175</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>11</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43925</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>3048</v>
@@ -1279,27 +1402,32 @@
         <v>190</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <v>11</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43926</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>3084</v>
@@ -1308,27 +1436,32 @@
         <v>203</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="G28" s="1">
         <v>8</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>11</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43927</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>3181</v>
@@ -1337,27 +1470,32 @@
         <v>209</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>12</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43928</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>3357</v>
@@ -1366,27 +1504,32 @@
         <v>229</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" si="0"/>
         <v>157</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="G30" s="1">
         <v>8</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <v>12</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43929</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>3526</v>
@@ -1395,27 +1538,32 @@
         <v>248</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>12</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43930</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>3721</v>
@@ -1424,27 +1572,32 @@
         <v>287</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="G32" s="1">
         <v>9</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
         <v>13</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43931</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <v>3924</v>
@@ -1453,27 +1606,32 @@
         <v>316</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="G33" s="1">
         <v>8</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
         <v>13</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43932</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>4180</v>
@@ -1482,27 +1640,32 @@
         <v>358</v>
       </c>
       <c r="E34" s="1">
-        <v>253</v>
+        <f t="shared" si="0"/>
+        <v>248</v>
       </c>
       <c r="F34" s="1">
-        <v>245</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="G34" s="1">
         <v>8</v>
       </c>
       <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
         <v>14</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43933</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>4284</v>
@@ -1511,10 +1674,12 @@
         <v>375</v>
       </c>
       <c r="E35" s="1">
-        <v>266</v>
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="F35" s="1">
-        <v>258</v>
+        <f t="shared" si="1"/>
+        <v>244</v>
       </c>
       <c r="G35" s="1">
         <v>8</v>
@@ -1523,15 +1688,18 @@
         <v>14</v>
       </c>
       <c r="I35" s="1">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43934</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>4439</v>
@@ -1540,27 +1708,32 @@
         <v>384</v>
       </c>
       <c r="E36" s="1">
-        <v>262</v>
+        <f t="shared" si="0"/>
+        <v>237</v>
       </c>
       <c r="F36" s="1">
-        <v>244</v>
+        <f t="shared" si="1"/>
+        <v>219</v>
       </c>
       <c r="G36" s="1">
         <v>18</v>
       </c>
       <c r="H36" s="1">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1">
         <v>15</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43935</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>4684</v>
@@ -1569,27 +1742,32 @@
         <v>403</v>
       </c>
       <c r="E37" s="1">
-        <v>281</v>
+        <f t="shared" si="0"/>
+        <v>242</v>
       </c>
       <c r="F37" s="1">
-        <v>258</v>
+        <f t="shared" si="1"/>
+        <v>219</v>
       </c>
       <c r="G37" s="1">
         <v>23</v>
       </c>
       <c r="H37" s="1">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
         <v>15</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43936</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>4899</v>
@@ -1598,27 +1776,32 @@
         <v>423</v>
       </c>
       <c r="E38" s="1">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="F38" s="1">
-        <v>275</v>
+        <f t="shared" si="1"/>
+        <v>227</v>
       </c>
       <c r="G38" s="1">
         <v>25</v>
       </c>
       <c r="H38" s="1">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1">
         <v>15</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>43937</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>5112</v>
@@ -1627,27 +1810,32 @@
         <v>454</v>
       </c>
       <c r="E39" s="1">
-        <v>320</v>
+        <f t="shared" si="0"/>
+        <v>266</v>
       </c>
       <c r="F39" s="1">
-        <v>294</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="G39" s="1">
         <v>26</v>
       </c>
       <c r="H39" s="1">
+        <v>54</v>
+      </c>
+      <c r="I39" s="1">
         <v>16</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>43938</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>5335</v>
@@ -1656,27 +1844,32 @@
         <v>481</v>
       </c>
       <c r="E40" s="1">
-        <v>346</v>
+        <f t="shared" si="0"/>
+        <v>273</v>
       </c>
       <c r="F40" s="1">
-        <v>319</v>
+        <f t="shared" si="1"/>
+        <v>246</v>
       </c>
       <c r="G40" s="1">
         <v>27</v>
       </c>
       <c r="H40" s="1">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1">
         <v>17</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>43939</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>5541</v>
@@ -1685,27 +1878,32 @@
         <v>502</v>
       </c>
       <c r="E41" s="1">
-        <v>367</v>
+        <f t="shared" si="0"/>
+        <v>291</v>
       </c>
       <c r="F41" s="1">
-        <v>340</v>
+        <f t="shared" si="1"/>
+        <v>264</v>
       </c>
       <c r="G41" s="1">
         <v>27</v>
       </c>
       <c r="H41" s="1">
+        <v>76</v>
+      </c>
+      <c r="I41" s="1">
         <v>17</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>43940</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
         <v>5667</v>
@@ -1714,27 +1912,32 @@
         <v>513</v>
       </c>
       <c r="E42" s="1">
-        <v>367</v>
+        <f t="shared" si="0"/>
+        <v>306</v>
       </c>
       <c r="F42" s="1">
-        <v>339</v>
+        <f t="shared" si="1"/>
+        <v>278</v>
       </c>
       <c r="G42" s="1">
         <v>28</v>
       </c>
       <c r="H42" s="1">
+        <v>61</v>
+      </c>
+      <c r="I42" s="1">
         <v>19</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>43941</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
         <v>5804</v>
@@ -1743,27 +1946,32 @@
         <v>524</v>
       </c>
       <c r="E43" s="1">
-        <v>347</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="F43" s="1">
-        <v>319</v>
+        <f t="shared" si="1"/>
+        <v>242</v>
       </c>
       <c r="G43" s="1">
         <v>28</v>
       </c>
       <c r="H43" s="1">
+        <v>77</v>
+      </c>
+      <c r="I43" s="1">
         <v>22</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43942</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <v>6036</v>
@@ -1772,27 +1980,32 @@
         <v>543</v>
       </c>
       <c r="E44" s="1">
-        <v>365</v>
+        <f t="shared" si="0"/>
+        <v>277</v>
       </c>
       <c r="F44" s="1">
-        <v>336</v>
+        <f t="shared" si="1"/>
+        <v>248</v>
       </c>
       <c r="G44" s="1">
         <v>29</v>
       </c>
       <c r="H44" s="1">
+        <v>88</v>
+      </c>
+      <c r="I44" s="1">
         <v>22</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43943</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1">
         <v>6289</v>
@@ -1801,27 +2014,32 @@
         <v>560</v>
       </c>
       <c r="E45" s="1">
-        <v>355</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="F45" s="1">
-        <v>323</v>
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
       <c r="G45" s="1">
         <v>32</v>
       </c>
       <c r="H45" s="1">
+        <v>85</v>
+      </c>
+      <c r="I45" s="1">
         <v>22</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>43944</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>6552</v>
@@ -1830,27 +2048,32 @@
         <v>580</v>
       </c>
       <c r="E46" s="1">
-        <v>357</v>
+        <f t="shared" si="0"/>
+        <v>279</v>
       </c>
       <c r="F46" s="1">
-        <v>328</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="G46" s="1">
         <v>29</v>
       </c>
       <c r="H46" s="1">
+        <v>78</v>
+      </c>
+      <c r="I46" s="1">
         <v>22</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>43945</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1">
         <v>6745</v>
@@ -1859,27 +2082,32 @@
         <v>605</v>
       </c>
       <c r="E47" s="1">
-        <v>343</v>
+        <f t="shared" si="0"/>
+        <v>262</v>
       </c>
       <c r="F47" s="1">
-        <v>315</v>
+        <f t="shared" si="1"/>
+        <v>234</v>
       </c>
       <c r="G47" s="1">
         <v>28</v>
       </c>
       <c r="H47" s="1">
+        <v>81</v>
+      </c>
+      <c r="I47" s="1">
         <v>23</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>43946</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>6937</v>
@@ -1888,27 +2116,32 @@
         <v>620</v>
       </c>
       <c r="E48" s="1">
-        <v>356</v>
+        <f t="shared" si="0"/>
+        <v>268</v>
       </c>
       <c r="F48" s="1">
-        <v>329</v>
+        <f t="shared" si="1"/>
+        <v>241</v>
       </c>
       <c r="G48" s="1">
         <v>27</v>
       </c>
       <c r="H48" s="1">
+        <v>88</v>
+      </c>
+      <c r="I48" s="1">
         <v>24</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>43947</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
         <v>7031</v>
@@ -1917,27 +2150,32 @@
         <v>629</v>
       </c>
       <c r="E49" s="1">
-        <v>353</v>
+        <f t="shared" si="0"/>
+        <v>271</v>
       </c>
       <c r="F49" s="1">
-        <v>326</v>
+        <f t="shared" si="1"/>
+        <v>244</v>
       </c>
       <c r="G49" s="1">
         <v>27</v>
       </c>
       <c r="H49" s="1">
+        <v>82</v>
+      </c>
+      <c r="I49" s="1">
         <v>24</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>43948</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <v>7175</v>
@@ -1946,27 +2184,32 @@
         <v>630</v>
       </c>
       <c r="E50" s="1">
-        <v>348</v>
+        <f t="shared" si="0"/>
+        <v>258</v>
       </c>
       <c r="F50" s="1">
-        <v>318</v>
+        <f t="shared" si="1"/>
+        <v>228</v>
       </c>
       <c r="G50" s="1">
         <v>30</v>
       </c>
       <c r="H50" s="1">
+        <v>90</v>
+      </c>
+      <c r="I50" s="1">
         <v>24</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>43949</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
         <v>7392</v>
@@ -1975,27 +2218,32 @@
         <v>637</v>
       </c>
       <c r="E51" s="1">
-        <v>334</v>
+        <f t="shared" si="0"/>
+        <v>244</v>
       </c>
       <c r="F51" s="1">
-        <v>308</v>
+        <f t="shared" si="1"/>
+        <v>218</v>
       </c>
       <c r="G51" s="1">
         <v>26</v>
       </c>
       <c r="H51" s="1">
+        <v>90</v>
+      </c>
+      <c r="I51" s="1">
         <v>27</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>43950</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>7617</v>
@@ -2004,27 +2252,32 @@
         <v>643</v>
       </c>
       <c r="E52" s="1">
-        <v>312</v>
+        <f t="shared" si="0"/>
+        <v>234</v>
       </c>
       <c r="F52" s="1">
-        <v>287</v>
+        <f t="shared" si="1"/>
+        <v>209</v>
       </c>
       <c r="G52" s="1">
         <v>25</v>
       </c>
       <c r="H52" s="1">
+        <v>78</v>
+      </c>
+      <c r="I52" s="1">
         <v>27</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43951</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>7782</v>
@@ -2033,27 +2286,32 @@
         <v>646</v>
       </c>
       <c r="E53" s="1">
-        <v>298</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="F53" s="1">
-        <v>277</v>
+        <f t="shared" si="1"/>
+        <v>199</v>
       </c>
       <c r="G53" s="1">
         <v>21</v>
       </c>
       <c r="H53" s="1">
+        <v>78</v>
+      </c>
+      <c r="I53" s="1">
         <v>27</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43952</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1">
         <v>8067</v>
@@ -2062,27 +2320,32 @@
         <v>651</v>
       </c>
       <c r="E54" s="1">
-        <v>273</v>
+        <f t="shared" si="0"/>
+        <v>205</v>
       </c>
       <c r="F54" s="1">
-        <v>252</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
       <c r="G54" s="1">
         <v>21</v>
       </c>
       <c r="H54" s="1">
+        <v>68</v>
+      </c>
+      <c r="I54" s="1">
         <v>27</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43953</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1">
         <v>8233</v>
@@ -2091,27 +2354,32 @@
         <v>655</v>
       </c>
       <c r="E55" s="1">
-        <v>269</v>
+        <f t="shared" si="0"/>
+        <v>202</v>
       </c>
       <c r="F55" s="1">
-        <v>246</v>
+        <f t="shared" si="1"/>
+        <v>179</v>
       </c>
       <c r="G55" s="1">
         <v>23</v>
       </c>
       <c r="H55" s="1">
+        <v>67</v>
+      </c>
+      <c r="I55" s="1">
         <v>28</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43954</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
         <v>8354</v>
@@ -2120,143 +2388,168 @@
         <v>667</v>
       </c>
       <c r="E56" s="1">
-        <v>262</v>
+        <f t="shared" si="0"/>
+        <v>201</v>
       </c>
       <c r="F56" s="1">
-        <v>241</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="G56" s="1">
         <v>21</v>
       </c>
       <c r="H56" s="1">
+        <v>61</v>
+      </c>
+      <c r="I56" s="1">
         <v>28</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>377</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43955</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
         <v>8484</v>
       </c>
       <c r="D57" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E57" s="1">
-        <v>257</v>
+        <f t="shared" si="0"/>
+        <v>202</v>
       </c>
       <c r="F57" s="1">
-        <v>234</v>
+        <f t="shared" si="1"/>
+        <v>179</v>
       </c>
       <c r="G57" s="1">
         <v>23</v>
       </c>
       <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
         <v>29</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43956</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
         <v>8551</v>
       </c>
       <c r="D58" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E58" s="1">
-        <v>233</v>
+        <f t="shared" si="0"/>
+        <v>183</v>
       </c>
       <c r="F58" s="1">
-        <v>210</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="G58" s="1">
         <v>23</v>
       </c>
       <c r="H58" s="1">
+        <v>51</v>
+      </c>
+      <c r="I58" s="1">
         <v>30</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43957</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
         <v>8713</v>
       </c>
       <c r="D59" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E59" s="1">
-        <v>209</v>
+        <f t="shared" si="0"/>
+        <v>163</v>
       </c>
       <c r="F59" s="1">
-        <v>185</v>
+        <f t="shared" si="1"/>
+        <v>139</v>
       </c>
       <c r="G59" s="1">
         <v>24</v>
       </c>
       <c r="H59" s="1">
+        <v>47</v>
+      </c>
+      <c r="I59" s="1">
         <v>30</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>437</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43958</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
         <v>8873</v>
       </c>
       <c r="D60" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E60" s="1">
-        <v>193</v>
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
       <c r="F60" s="1">
-        <v>169</v>
+        <f t="shared" si="1"/>
+        <v>128</v>
       </c>
       <c r="G60" s="1">
         <v>24</v>
       </c>
       <c r="H60" s="1">
+        <v>42</v>
+      </c>
+      <c r="I60" s="1">
         <v>32</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43959</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1">
         <v>9082</v>
@@ -2265,27 +2558,32 @@
         <v>680</v>
       </c>
       <c r="E61" s="1">
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>143</v>
       </c>
       <c r="F61" s="1">
-        <v>162</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="G61" s="1">
         <v>23</v>
       </c>
       <c r="H61" s="1">
+        <v>42</v>
+      </c>
+      <c r="I61" s="1">
         <v>32</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43960</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
         <v>9328</v>
@@ -2294,27 +2592,32 @@
         <v>688</v>
       </c>
       <c r="E62" s="1">
-        <v>168</v>
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
       <c r="F62" s="1">
-        <v>144</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="G62" s="1">
         <v>24</v>
       </c>
       <c r="H62" s="1">
+        <v>36</v>
+      </c>
+      <c r="I62" s="1">
         <v>34</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>486</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43961</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1">
         <v>9416</v>
@@ -2323,27 +2626,32 @@
         <v>693</v>
       </c>
       <c r="E63" s="1">
-        <v>159</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="F63" s="1">
-        <v>135</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="G63" s="1">
         <v>24</v>
       </c>
       <c r="H63" s="1">
+        <v>29</v>
+      </c>
+      <c r="I63" s="1">
         <v>34</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>43962</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
         <v>9540</v>
@@ -2352,27 +2660,32 @@
         <v>694</v>
       </c>
       <c r="E64" s="1">
-        <v>148</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="F64" s="1">
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="G64" s="1">
         <v>20</v>
       </c>
       <c r="H64" s="1">
+        <v>28</v>
+      </c>
+      <c r="I64" s="1">
         <v>34</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>43963</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
         <v>9765</v>
@@ -2381,27 +2694,32 @@
         <v>694</v>
       </c>
       <c r="E65" s="1">
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="F65" s="1">
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="G65" s="1">
         <v>21</v>
       </c>
       <c r="H65" s="1">
+        <v>30</v>
+      </c>
+      <c r="I65" s="1">
         <v>35</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>521</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>43964</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
         <v>9973</v>
@@ -2410,27 +2728,32 @@
         <v>697</v>
       </c>
       <c r="E66" s="1">
-        <v>121</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="F66" s="1">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="G66" s="1">
         <v>18</v>
       </c>
       <c r="H66" s="1">
+        <v>26</v>
+      </c>
+      <c r="I66" s="1">
         <v>37</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>43965</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
         <v>10147</v>
@@ -2439,27 +2762,32 @@
         <v>698</v>
       </c>
       <c r="E67" s="1">
-        <v>113</v>
+        <f t="shared" ref="E67:E129" si="2">+D67-I67-J67-H67</f>
+        <v>87</v>
       </c>
       <c r="F67" s="1">
-        <v>94</v>
+        <f t="shared" ref="F67:F130" si="3">+E67-G67</f>
+        <v>68</v>
       </c>
       <c r="G67" s="1">
         <v>19</v>
       </c>
       <c r="H67" s="1">
+        <v>26</v>
+      </c>
+      <c r="I67" s="1">
         <v>37</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>43966</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>10318</v>
@@ -2468,27 +2796,32 @@
         <v>698</v>
       </c>
       <c r="E68" s="1">
-        <v>101</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="F68" s="1">
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="G68" s="1">
         <v>19</v>
       </c>
       <c r="H68" s="1">
+        <v>23</v>
+      </c>
+      <c r="I68" s="1">
         <v>38</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>43967</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
         <v>10456</v>
@@ -2497,27 +2830,32 @@
         <v>699</v>
       </c>
       <c r="E69" s="1">
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="F69" s="1">
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="G69" s="1">
         <v>17</v>
       </c>
       <c r="H69" s="1">
+        <v>21</v>
+      </c>
+      <c r="I69" s="1">
         <v>38</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>43968</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>10522</v>
@@ -2526,27 +2864,32 @@
         <v>699</v>
       </c>
       <c r="E70" s="1">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="F70" s="1">
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="G70" s="1">
         <v>17</v>
       </c>
       <c r="H70" s="1">
+        <v>20</v>
+      </c>
+      <c r="I70" s="1">
         <v>38</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>43969</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>10623</v>
@@ -2555,27 +2898,32 @@
         <v>699</v>
       </c>
       <c r="E71" s="1">
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="F71" s="1">
-        <v>65</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="G71" s="1">
         <v>15</v>
       </c>
       <c r="H71" s="1">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1">
         <v>38</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>43970</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>10788</v>
@@ -2584,27 +2932,32 @@
         <v>699</v>
       </c>
       <c r="E72" s="1">
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="F72" s="1">
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="G72" s="1">
         <v>13</v>
       </c>
       <c r="H72" s="1">
+        <v>18</v>
+      </c>
+      <c r="I72" s="1">
         <v>38</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>594</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>43971</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1">
         <v>10950</v>
@@ -2613,27 +2966,32 @@
         <v>699</v>
       </c>
       <c r="E73" s="1">
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="F73" s="1">
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="G73" s="1">
         <v>12</v>
       </c>
       <c r="H73" s="1">
+        <v>17</v>
+      </c>
+      <c r="I73" s="1">
         <v>38</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>43972</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1">
         <v>11076</v>
@@ -2642,27 +3000,32 @@
         <v>699</v>
       </c>
       <c r="E74" s="1">
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="F74" s="1">
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="G74" s="1">
         <v>12</v>
       </c>
       <c r="H74" s="1">
+        <v>13</v>
+      </c>
+      <c r="I74" s="1">
         <v>38</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>43973</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1">
         <v>11191</v>
@@ -2671,27 +3034,32 @@
         <v>699</v>
       </c>
       <c r="E75" s="1">
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="F75" s="1">
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="G75" s="1">
         <v>11</v>
       </c>
       <c r="H75" s="1">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1">
         <v>40</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>43974</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1">
         <v>11274</v>
@@ -2700,27 +3068,32 @@
         <v>699</v>
       </c>
       <c r="E76" s="1">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="F76" s="1">
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="G76" s="1">
         <v>11</v>
       </c>
       <c r="H76" s="1">
+        <v>9</v>
+      </c>
+      <c r="I76" s="1">
         <v>40</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="1">
         <v>609</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>43975</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1">
         <v>11310</v>
@@ -2729,27 +3102,32 @@
         <v>699</v>
       </c>
       <c r="E77" s="1">
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="F77" s="1">
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="G77" s="1">
         <v>10</v>
       </c>
       <c r="H77" s="1">
+        <v>7</v>
+      </c>
+      <c r="I77" s="1">
         <v>40</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>613</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>43976</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
         <v>11392</v>
@@ -2758,27 +3136,32 @@
         <v>699</v>
       </c>
       <c r="E78" s="1">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="F78" s="1">
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="G78" s="1">
         <v>10</v>
       </c>
       <c r="H78" s="1">
+        <v>7</v>
+      </c>
+      <c r="I78" s="1">
         <v>40</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="1">
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>43977</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>11512</v>
@@ -2787,27 +3170,32 @@
         <v>699</v>
       </c>
       <c r="E79" s="1">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="F79" s="1">
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="G79" s="1">
         <v>6</v>
       </c>
       <c r="H79" s="1">
+        <v>7</v>
+      </c>
+      <c r="I79" s="1">
         <v>40</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>618</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>43978</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>11626</v>
@@ -2816,27 +3204,32 @@
         <v>699</v>
       </c>
       <c r="E80" s="1">
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="F80" s="1">
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="G80" s="1">
         <v>5</v>
       </c>
       <c r="H80" s="1">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1">
         <v>40</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="1">
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>43979</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1">
         <v>11714</v>
@@ -2845,27 +3238,32 @@
         <v>699</v>
       </c>
       <c r="E81" s="1">
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="F81" s="1">
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
       </c>
       <c r="H81" s="1">
+        <v>4</v>
+      </c>
+      <c r="I81" s="1">
         <v>41</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>625</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>43980</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>11804</v>
@@ -2874,27 +3272,32 @@
         <v>699</v>
       </c>
       <c r="E82" s="1">
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="F82" s="1">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="G82" s="1">
         <v>5</v>
       </c>
       <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
         <v>42</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J82" s="1">
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>43981</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
         <v>11875</v>
@@ -2903,27 +3306,32 @@
         <v>699</v>
       </c>
       <c r="E83" s="1">
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="F83" s="1">
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
       </c>
       <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
         <v>42</v>
       </c>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>43982</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>11905</v>
@@ -2932,27 +3340,32 @@
         <v>699</v>
       </c>
       <c r="E84" s="1">
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="F84" s="1">
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="G84" s="1">
         <v>5</v>
       </c>
       <c r="H84" s="1">
+        <v>4</v>
+      </c>
+      <c r="I84" s="1">
         <v>42</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J84" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>43983</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1">
         <v>12025</v>
@@ -2961,27 +3374,32 @@
         <v>699</v>
       </c>
       <c r="E85" s="1">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="F85" s="1">
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="G85" s="1">
         <v>4</v>
       </c>
       <c r="H85" s="1">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
         <v>42</v>
       </c>
-      <c r="I85" s="1">
+      <c r="J85" s="1">
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>43984</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
         <v>12167</v>
@@ -2990,27 +3408,32 @@
         <v>699</v>
       </c>
       <c r="E86" s="1">
-        <v>21</v>
+        <f>+D86-I86-J86-H86</f>
+        <v>18</v>
       </c>
       <c r="F86" s="1">
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="G86" s="1">
         <v>4</v>
       </c>
       <c r="H86" s="1">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1">
         <v>42</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>43985</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
         <v>12315</v>
@@ -3019,27 +3442,32 @@
         <v>699</v>
       </c>
       <c r="E87" s="1">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="F87" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G87" s="1">
         <v>4</v>
       </c>
       <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
         <v>42</v>
       </c>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <v>641</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>43986</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1">
         <v>12450</v>
@@ -3048,27 +3476,32 @@
         <v>699</v>
       </c>
       <c r="E88" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G88" s="1">
         <v>4</v>
       </c>
       <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
         <v>42</v>
       </c>
-      <c r="I88" s="1">
+      <c r="J88" s="1">
         <v>647</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>43987</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1">
         <v>12569</v>
@@ -3077,27 +3510,32 @@
         <v>699</v>
       </c>
       <c r="E89" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F89" s="1">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G89" s="1">
         <v>4</v>
       </c>
       <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
         <v>42</v>
       </c>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>43988</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1">
         <v>12642</v>
@@ -3106,29 +3544,32 @@
         <v>699</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" ref="E90" si="4">+D90-H90-I90</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" ref="F90" si="5">+E90-G90</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G90" s="1">
         <v>4</v>
       </c>
       <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
         <v>42</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>43989</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1">
         <v>12677</v>
@@ -3137,27 +3578,32 @@
         <v>699</v>
       </c>
       <c r="E91" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F91" s="1">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G91" s="1">
         <v>4</v>
       </c>
       <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
         <v>42</v>
       </c>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>43990</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
         <v>12830</v>
@@ -3166,27 +3612,32 @@
         <v>699</v>
       </c>
       <c r="E92" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F92" s="1">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G92" s="1">
         <v>3</v>
       </c>
       <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
         <v>43</v>
       </c>
-      <c r="I92" s="1">
+      <c r="J92" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>43991</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93" s="1">
         <v>12980</v>
@@ -3195,27 +3646,32 @@
         <v>699</v>
       </c>
       <c r="E93" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F93" s="1">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G93" s="1">
         <v>3</v>
       </c>
       <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
         <v>43</v>
       </c>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>43992</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1">
         <v>13105</v>
@@ -3224,27 +3680,32 @@
         <v>699</v>
       </c>
       <c r="E94" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F94" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="1">
         <v>3</v>
       </c>
       <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
         <v>43</v>
       </c>
-      <c r="I94" s="1">
+      <c r="J94" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>43993</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1">
         <v>13241</v>
@@ -3253,27 +3714,32 @@
         <v>699</v>
       </c>
       <c r="E95" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F95" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
         <v>43</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>43994</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
         <v>13301</v>
@@ -3282,27 +3748,32 @@
         <v>699</v>
       </c>
       <c r="E96" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F96" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
         <v>43</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>43995</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
         <v>13355</v>
@@ -3311,29 +3782,32 @@
         <v>699</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" ref="E97" si="6">+D97-H97-I97</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" ref="F97" si="7">+E97-G97</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
         <v>43</v>
       </c>
-      <c r="I97" s="1">
+      <c r="J97" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>43996</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
         <v>13377</v>
@@ -3342,27 +3816,32 @@
         <v>699</v>
       </c>
       <c r="E98" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F98" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
         <v>43</v>
       </c>
-      <c r="I98" s="1">
+      <c r="J98" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>43997</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
         <v>13441</v>
@@ -3371,27 +3850,32 @@
         <v>699</v>
       </c>
       <c r="E99" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F99" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
       </c>
       <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
         <v>43</v>
       </c>
-      <c r="I99" s="1">
+      <c r="J99" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>43998</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
         <v>13526</v>
@@ -3400,27 +3884,32 @@
         <v>699</v>
       </c>
       <c r="E100" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F100" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
         <v>43</v>
       </c>
-      <c r="I100" s="1">
+      <c r="J100" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>43999</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1">
         <v>13665</v>
@@ -3429,27 +3918,32 @@
         <v>699</v>
       </c>
       <c r="E101" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F101" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
       </c>
       <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
         <v>43</v>
       </c>
-      <c r="I101" s="1">
+      <c r="J101" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>44000</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1">
         <v>13745</v>
@@ -3458,27 +3952,32 @@
         <v>699</v>
       </c>
       <c r="E102" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F102" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
       </c>
       <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
         <v>43</v>
       </c>
-      <c r="I102" s="1">
+      <c r="J102" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>44001</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1">
         <v>13886</v>
@@ -3487,27 +3986,32 @@
         <v>700</v>
       </c>
       <c r="E103" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F103" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G103" s="1">
         <v>0</v>
       </c>
       <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
         <v>43</v>
       </c>
-      <c r="I103" s="1">
+      <c r="J103" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>44002</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C104" s="1">
         <v>13915</v>
@@ -3516,27 +4020,32 @@
         <v>700</v>
       </c>
       <c r="E104" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F104" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
       </c>
       <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
         <v>43</v>
       </c>
-      <c r="I104" s="1">
+      <c r="J104" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>44003</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C105" s="1">
         <v>13930</v>
@@ -3545,27 +4054,32 @@
         <v>702</v>
       </c>
       <c r="E105" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F105" s="1">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
         <v>43</v>
       </c>
-      <c r="I105" s="1">
+      <c r="J105" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>44004</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1">
         <v>14018</v>
@@ -3574,27 +4088,32 @@
         <v>702</v>
       </c>
       <c r="E106" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F106" s="1">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
         <v>43</v>
       </c>
-      <c r="I106" s="1">
+      <c r="J106" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>44005</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
         <v>14176</v>
@@ -3603,27 +4122,32 @@
         <v>703</v>
       </c>
       <c r="E107" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F107" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
       </c>
       <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
         <v>43</v>
       </c>
-      <c r="I107" s="1">
+      <c r="J107" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>44006</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1">
         <v>14347</v>
@@ -3632,27 +4156,32 @@
         <v>704</v>
       </c>
       <c r="E108" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F108" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G108" s="1">
         <v>0</v>
       </c>
       <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
         <v>43</v>
       </c>
-      <c r="I108" s="1">
+      <c r="J108" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>44007</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1">
         <v>14483</v>
@@ -3661,27 +4190,32 @@
         <v>704</v>
       </c>
       <c r="E109" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F109" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
       <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
         <v>43</v>
       </c>
-      <c r="I109" s="1">
+      <c r="J109" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>44008</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
         <v>14637</v>
@@ -3690,27 +4224,32 @@
         <v>705</v>
       </c>
       <c r="E110" s="1">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F110" s="1">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
       </c>
       <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
         <v>43</v>
       </c>
-      <c r="I110" s="1">
+      <c r="J110" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>44009</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111" s="1">
         <v>14671</v>
@@ -3719,27 +4258,32 @@
         <v>705</v>
       </c>
       <c r="E111" s="1">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F111" s="1">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G111" s="1">
         <v>0</v>
       </c>
       <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
         <v>43</v>
       </c>
-      <c r="I111" s="1">
+      <c r="J111" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>44010</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1">
         <v>14695</v>
@@ -3748,27 +4292,32 @@
         <v>705</v>
       </c>
       <c r="E112" s="1">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F112" s="1">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G112" s="1">
         <v>0</v>
       </c>
       <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
         <v>43</v>
       </c>
-      <c r="I112" s="1">
+      <c r="J112" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>44011</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
         <v>14857</v>
@@ -3777,27 +4326,32 @@
         <v>705</v>
       </c>
       <c r="E113" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F113" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
       </c>
       <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
         <v>45</v>
       </c>
-      <c r="I113" s="1">
+      <c r="J113" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>44012</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1">
         <v>14947</v>
@@ -3806,27 +4360,32 @@
         <v>706</v>
       </c>
       <c r="E114" s="1">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F114" s="1">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
       </c>
       <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
         <v>45</v>
       </c>
-      <c r="I114" s="1">
+      <c r="J114" s="1">
         <v>655</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>44013</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C115" s="1">
         <v>15056</v>
@@ -3835,27 +4394,32 @@
         <v>708</v>
       </c>
       <c r="E115" s="1">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F115" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G115" s="1">
         <v>0</v>
       </c>
       <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
         <v>45</v>
       </c>
-      <c r="I115" s="1">
+      <c r="J115" s="1">
         <v>656</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>44014</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C116" s="1">
         <v>15205</v>
@@ -3864,24 +4428,1755 @@
         <v>709</v>
       </c>
       <c r="E116" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>45</v>
+      </c>
+      <c r="J116" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>44015</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>15362</v>
+      </c>
+      <c r="D117" s="1">
+        <v>709</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>45</v>
+      </c>
+      <c r="J117" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>44016</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>15461</v>
+      </c>
+      <c r="D118" s="1">
+        <v>710</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F118" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G116" s="1">
-        <v>0</v>
-      </c>
-      <c r="H116" s="1">
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
         <v>45</v>
       </c>
-      <c r="I116" s="1">
+      <c r="J118" s="1">
         <v>656</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>44017</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>15593</v>
+      </c>
+      <c r="D119" s="1">
+        <v>712</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>45</v>
+      </c>
+      <c r="J119" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>44018</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>15792</v>
+      </c>
+      <c r="D120" s="1">
+        <v>716</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>45</v>
+      </c>
+      <c r="J120" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1">
+        <v>16089</v>
+      </c>
+      <c r="D121" s="1">
+        <v>717</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>45</v>
+      </c>
+      <c r="J121" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>44020</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>16313</v>
+      </c>
+      <c r="D122" s="1">
+        <v>720</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>45</v>
+      </c>
+      <c r="J122" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>44021</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="1">
+        <v>16552</v>
+      </c>
+      <c r="D123" s="1">
+        <v>722</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1">
+        <v>45</v>
+      </c>
+      <c r="J123" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>44022</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1">
+        <v>16730</v>
+      </c>
+      <c r="D124" s="1">
+        <v>726</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1">
+        <v>45</v>
+      </c>
+      <c r="J124" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>44023</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="1">
+        <v>16817</v>
+      </c>
+      <c r="D125" s="1">
+        <v>731</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1">
+        <v>45</v>
+      </c>
+      <c r="J125" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>44024</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1">
+        <v>16846</v>
+      </c>
+      <c r="D126" s="1">
+        <v>737</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>5</v>
+      </c>
+      <c r="I126" s="1">
+        <v>45</v>
+      </c>
+      <c r="J126" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>44025</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1">
+        <v>17192</v>
+      </c>
+      <c r="D127" s="1">
+        <v>739</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1">
+        <v>45</v>
+      </c>
+      <c r="J127" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>44026</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1">
+        <v>17478</v>
+      </c>
+      <c r="D128" s="1">
+        <v>739</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>45</v>
+      </c>
+      <c r="J128" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>44027</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>17829</v>
+      </c>
+      <c r="D129" s="1">
+        <v>760</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2</v>
+      </c>
+      <c r="I129" s="1">
+        <v>45</v>
+      </c>
+      <c r="J129" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>44028</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>18310</v>
+      </c>
+      <c r="D130" s="1">
+        <v>777</v>
+      </c>
+      <c r="E130" s="1">
+        <f>+D130-I130-J130-H130</f>
+        <v>45</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>6</v>
+      </c>
+      <c r="I130" s="1">
+        <v>45</v>
+      </c>
+      <c r="J130" s="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>44029</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>18644</v>
+      </c>
+      <c r="D131" s="1">
+        <v>800</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" ref="E131:E147" si="4">+D131-I131-J131-H131</f>
+        <v>52</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131:F147" si="5">+E131-G131</f>
+        <v>52</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1">
+        <v>45</v>
+      </c>
+      <c r="J131" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>44030</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1">
+        <v>18933</v>
+      </c>
+      <c r="D132" s="1">
+        <v>813</v>
+      </c>
+      <c r="E132" s="1">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>17</v>
+      </c>
+      <c r="I132" s="1">
+        <v>45</v>
+      </c>
+      <c r="J132" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>44031</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1">
+        <v>19089</v>
+      </c>
+      <c r="D133" s="1">
+        <v>834</v>
+      </c>
+      <c r="E133" s="1">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1">
+        <v>45</v>
+      </c>
+      <c r="J133" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>44032</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1">
+        <v>19396</v>
+      </c>
+      <c r="D134" s="1">
+        <v>841</v>
+      </c>
+      <c r="E134" s="1">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>20</v>
+      </c>
+      <c r="I134" s="1">
+        <v>45</v>
+      </c>
+      <c r="J134" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>44033</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>20016</v>
+      </c>
+      <c r="D135" s="1">
+        <v>853</v>
+      </c>
+      <c r="E135" s="1">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>30</v>
+      </c>
+      <c r="I135" s="1">
+        <v>45</v>
+      </c>
+      <c r="J135" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>44034</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="1">
+        <v>20675</v>
+      </c>
+      <c r="D136" s="1">
+        <v>883</v>
+      </c>
+      <c r="E136" s="1">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>32</v>
+      </c>
+      <c r="I136" s="1">
+        <v>45</v>
+      </c>
+      <c r="J136" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>44035</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1">
+        <v>21298</v>
+      </c>
+      <c r="D137" s="1">
+        <v>918</v>
+      </c>
+      <c r="E137" s="1">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>38</v>
+      </c>
+      <c r="I137" s="1">
+        <v>45</v>
+      </c>
+      <c r="J137" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>44036</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="1">
+        <v>21956</v>
+      </c>
+      <c r="D138" s="1">
+        <v>941</v>
+      </c>
+      <c r="E138" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1">
+        <v>33</v>
+      </c>
+      <c r="I138" s="1">
+        <v>45</v>
+      </c>
+      <c r="J138" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>44037</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="1">
+        <v>23180</v>
+      </c>
+      <c r="D139" s="1">
+        <v>965</v>
+      </c>
+      <c r="E139" s="1">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>31</v>
+      </c>
+      <c r="I139" s="1">
+        <v>45</v>
+      </c>
+      <c r="J139" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>44038</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1">
+        <v>23551</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1014</v>
+      </c>
+      <c r="E140" s="1">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4</v>
+      </c>
+      <c r="H140" s="1">
+        <v>36</v>
+      </c>
+      <c r="I140" s="1">
+        <v>45</v>
+      </c>
+      <c r="J140" s="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>44039</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="1">
+        <v>24011</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1026</v>
+      </c>
+      <c r="E141" s="1">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>40</v>
+      </c>
+      <c r="I141" s="1">
+        <v>45</v>
+      </c>
+      <c r="J141" s="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>44040</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="1">
+        <v>24520</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1059</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="G142" s="1">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1">
+        <v>55</v>
+      </c>
+      <c r="I142" s="1">
+        <v>45</v>
+      </c>
+      <c r="J142" s="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>44041</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="1">
+        <v>25096</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1105</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="G143" s="1">
+        <v>6</v>
+      </c>
+      <c r="H143" s="1">
+        <v>49</v>
+      </c>
+      <c r="I143" s="1">
+        <v>45</v>
+      </c>
+      <c r="J143" s="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>44042</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1">
+        <v>25952</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1158</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="G144" s="1">
+        <v>5</v>
+      </c>
+      <c r="H144" s="1">
+        <v>52</v>
+      </c>
+      <c r="I144" s="1">
+        <v>45</v>
+      </c>
+      <c r="J144" s="1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>44043</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="1">
+        <v>26627</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1220</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+      <c r="G145" s="1">
+        <v>4</v>
+      </c>
+      <c r="H145" s="1">
+        <v>44</v>
+      </c>
+      <c r="I145" s="1">
+        <v>45</v>
+      </c>
+      <c r="J145" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>44044</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="1">
+        <v>27277</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1252</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="G146" s="1">
+        <v>5</v>
+      </c>
+      <c r="H146" s="1">
+        <v>48</v>
+      </c>
+      <c r="I146" s="1">
+        <v>45</v>
+      </c>
+      <c r="J146" s="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>44045</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="1">
+        <v>27807</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1312</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4</v>
+      </c>
+      <c r="H147" s="1">
+        <v>49</v>
+      </c>
+      <c r="I147" s="1">
+        <v>45</v>
+      </c>
+      <c r="J147" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>44046</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1">
+        <v>28241</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1339</v>
+      </c>
+      <c r="E148" s="1">
+        <v>243</v>
+      </c>
+      <c r="F148" s="1">
+        <v>236</v>
+      </c>
+      <c r="G148" s="1">
+        <v>7</v>
+      </c>
+      <c r="H148" s="1">
+        <v>43</v>
+      </c>
+      <c r="I148" s="1">
+        <v>45</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>44047</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="1">
+        <v>28848</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1371</v>
+      </c>
+      <c r="E149" s="1">
+        <v>239</v>
+      </c>
+      <c r="F149" s="1">
+        <v>232</v>
+      </c>
+      <c r="G149" s="1">
+        <v>7</v>
+      </c>
+      <c r="H149" s="1">
+        <v>50</v>
+      </c>
+      <c r="I149" s="1">
+        <v>45</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>44048</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="1">
+        <v>29623</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1423</v>
+      </c>
+      <c r="E150" s="1">
+        <v>253</v>
+      </c>
+      <c r="F150" s="1">
+        <v>245</v>
+      </c>
+      <c r="G150" s="1">
+        <v>8</v>
+      </c>
+      <c r="H150" s="1">
+        <v>55</v>
+      </c>
+      <c r="I150" s="1">
+        <v>46</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>30276</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1484</v>
+      </c>
+      <c r="E151" s="1">
+        <v>247</v>
+      </c>
+      <c r="F151" s="1">
+        <v>239</v>
+      </c>
+      <c r="G151" s="1">
+        <v>8</v>
+      </c>
+      <c r="H151" s="1">
+        <v>62</v>
+      </c>
+      <c r="I151" s="1">
+        <v>47</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>44050</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1">
+        <v>30984</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1533</v>
+      </c>
+      <c r="E152" s="1">
+        <v>241</v>
+      </c>
+      <c r="F152" s="1">
+        <v>231</v>
+      </c>
+      <c r="G152" s="1">
+        <v>10</v>
+      </c>
+      <c r="H152" s="1">
+        <v>66</v>
+      </c>
+      <c r="I152" s="1">
+        <v>47</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>44051</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1">
+        <v>31663</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1588</v>
+      </c>
+      <c r="E153" s="1">
+        <v>244</v>
+      </c>
+      <c r="F153" s="1">
+        <v>235</v>
+      </c>
+      <c r="G153" s="1">
+        <v>9</v>
+      </c>
+      <c r="H153" s="1">
+        <v>66</v>
+      </c>
+      <c r="I153" s="1">
+        <v>47</v>
+      </c>
+      <c r="J153" s="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>44052</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="1">
+        <v>32165</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1636</v>
+      </c>
+      <c r="E154" s="1">
+        <v>254</v>
+      </c>
+      <c r="F154" s="1">
+        <v>244</v>
+      </c>
+      <c r="G154" s="1">
+        <v>10</v>
+      </c>
+      <c r="H154" s="1">
+        <v>67</v>
+      </c>
+      <c r="I154" s="1">
+        <v>47</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>44053</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="1">
+        <v>32588</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1662</v>
+      </c>
+      <c r="E155" s="1">
+        <v>228</v>
+      </c>
+      <c r="F155" s="1">
+        <v>219</v>
+      </c>
+      <c r="G155" s="1">
+        <v>9</v>
+      </c>
+      <c r="H155" s="1">
+        <v>60</v>
+      </c>
+      <c r="I155" s="1">
+        <v>47</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>44054</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>33215</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1692</v>
+      </c>
+      <c r="E156" s="1">
+        <v>226</v>
+      </c>
+      <c r="F156" s="1">
+        <v>213</v>
+      </c>
+      <c r="G156" s="1">
+        <v>13</v>
+      </c>
+      <c r="H156" s="1">
+        <v>50</v>
+      </c>
+      <c r="I156" s="1">
+        <v>47</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>44055</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="1">
+        <v>33876</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1728</v>
+      </c>
+      <c r="E157" s="1">
+        <v>218</v>
+      </c>
+      <c r="F157" s="1">
+        <v>204</v>
+      </c>
+      <c r="G157" s="1">
+        <v>14</v>
+      </c>
+      <c r="H157" s="1">
+        <v>57</v>
+      </c>
+      <c r="I157" s="1">
+        <v>47</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>44056</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1">
+        <v>34579</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1776</v>
+      </c>
+      <c r="E158" s="1">
+        <v>210</v>
+      </c>
+      <c r="F158" s="1">
+        <v>196</v>
+      </c>
+      <c r="G158" s="1">
+        <v>14</v>
+      </c>
+      <c r="H158" s="1">
+        <v>55</v>
+      </c>
+      <c r="I158" s="1">
+        <v>47</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>44057</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1">
+        <v>35200</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1810</v>
+      </c>
+      <c r="E159" s="1">
+        <v>221</v>
+      </c>
+      <c r="F159" s="1">
+        <v>207</v>
+      </c>
+      <c r="G159" s="1">
+        <v>14</v>
+      </c>
+      <c r="H159" s="1">
+        <v>51</v>
+      </c>
+      <c r="I159" s="1">
+        <v>48</v>
+      </c>
+      <c r="J159" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>44058</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="1">
+        <v>35836</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1863</v>
+      </c>
+      <c r="E160" s="1">
+        <v>219</v>
+      </c>
+      <c r="F160" s="1">
+        <v>205</v>
+      </c>
+      <c r="G160" s="1">
+        <v>14</v>
+      </c>
+      <c r="H160" s="1">
+        <v>60</v>
+      </c>
+      <c r="I160" s="1">
+        <v>48</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>44059</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1">
+        <v>36336</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E161" s="1">
+        <v>225</v>
+      </c>
+      <c r="F161" s="1">
+        <v>211</v>
+      </c>
+      <c r="G161" s="1">
+        <v>14</v>
+      </c>
+      <c r="H161" s="1">
+        <v>70</v>
+      </c>
+      <c r="I161" s="1">
+        <v>48</v>
+      </c>
+      <c r="J161" s="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>44060</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="1">
+        <v>36814</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1924</v>
+      </c>
+      <c r="E162" s="1">
+        <v>224</v>
+      </c>
+      <c r="F162" s="1">
+        <v>213</v>
+      </c>
+      <c r="G162" s="1">
+        <v>11</v>
+      </c>
+      <c r="H162" s="1">
+        <v>56</v>
+      </c>
+      <c r="I162" s="1">
+        <v>48</v>
+      </c>
+      <c r="J162" s="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>44061</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="1">
+        <v>37431</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1949</v>
+      </c>
+      <c r="E163" s="1">
+        <v>224</v>
+      </c>
+      <c r="F163" s="1">
+        <v>208</v>
+      </c>
+      <c r="G163" s="1">
+        <v>16</v>
+      </c>
+      <c r="H163" s="1">
+        <v>59</v>
+      </c>
+      <c r="I163" s="1">
+        <v>48</v>
+      </c>
+      <c r="J163" s="1">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>44062</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1">
+        <v>38036</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1998</v>
+      </c>
+      <c r="E164" s="1">
+        <v>228</v>
+      </c>
+      <c r="F164" s="1">
+        <v>210</v>
+      </c>
+      <c r="G164" s="1">
+        <v>18</v>
+      </c>
+      <c r="H164" s="1">
+        <v>59</v>
+      </c>
+      <c r="I164" s="1">
+        <v>48</v>
+      </c>
+      <c r="J164" s="1">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>44063</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1">
+        <v>38650</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2033</v>
+      </c>
+      <c r="E165" s="1">
+        <v>227</v>
+      </c>
+      <c r="F165" s="1">
+        <v>213</v>
+      </c>
+      <c r="G165" s="1">
+        <v>14</v>
+      </c>
+      <c r="H165" s="1">
+        <v>63</v>
+      </c>
+      <c r="I165" s="1">
+        <v>48</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>44064</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1">
+        <v>39318</v>
+      </c>
+      <c r="D166" s="1">
+        <v>2072</v>
+      </c>
+      <c r="E166" s="1">
+        <v>218</v>
+      </c>
+      <c r="F166" s="1">
+        <v>204</v>
+      </c>
+      <c r="G166" s="1">
+        <v>14</v>
+      </c>
+      <c r="H166" s="1">
+        <v>59</v>
+      </c>
+      <c r="I166" s="1">
+        <v>49</v>
+      </c>
+      <c r="J166" s="1">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>44065</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="1">
+        <v>39941</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2105</v>
+      </c>
+      <c r="E167" s="1">
+        <v>225</v>
+      </c>
+      <c r="F167" s="1">
+        <v>212</v>
+      </c>
+      <c r="G167" s="1">
+        <v>13</v>
+      </c>
+      <c r="H167" s="1">
+        <v>53</v>
+      </c>
+      <c r="I167" s="1">
+        <v>49</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>44066</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1">
+        <v>40388</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2129</v>
+      </c>
+      <c r="E168" s="1">
+        <v>230</v>
+      </c>
+      <c r="F168" s="1">
+        <v>216</v>
+      </c>
+      <c r="G168" s="1">
+        <v>14</v>
+      </c>
+      <c r="H168" s="1">
+        <v>48</v>
+      </c>
+      <c r="I168" s="1">
+        <v>49</v>
+      </c>
+      <c r="J168" s="1">
+        <v>1802</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>